--- a/DEPkg.xlsx
+++ b/DEPkg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus 40\Documents\GitHub\SCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971212E5-7CC9-4231-86C7-E43D23A6BF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C6F9A5-8DC8-4633-8E8A-8822AF725E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,13 +238,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K28" totalsRowShown="0">
-  <autoFilter ref="A1:K28" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -550,7 +544,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -643,7 +637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -657,7 +651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -671,7 +665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>30</v>
       </c>
@@ -685,7 +679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -699,7 +693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>38</v>
       </c>
@@ -713,7 +707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>42</v>
       </c>
@@ -727,7 +721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>46</v>
       </c>
@@ -764,7 +758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>18</v>
       </c>
@@ -778,7 +772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>22</v>
       </c>
@@ -792,7 +786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>26</v>
       </c>
@@ -806,7 +800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>30</v>
       </c>
@@ -820,7 +814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>34</v>
       </c>
@@ -834,7 +828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>38</v>
       </c>
@@ -848,7 +842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>42</v>
       </c>
@@ -862,7 +856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>46</v>
       </c>
@@ -899,7 +893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>18</v>
       </c>
@@ -913,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>22</v>
       </c>
@@ -927,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>26</v>
       </c>
@@ -941,7 +935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>30</v>
       </c>
@@ -955,7 +949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>34</v>
       </c>
@@ -969,7 +963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>38</v>
       </c>
@@ -983,7 +977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>42</v>
       </c>
@@ -997,7 +991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>46</v>
       </c>

--- a/DEPkg.xlsx
+++ b/DEPkg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus 40\Documents\GitHub\SCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C6F9A5-8DC8-4633-8E8A-8822AF725E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8253DC75-F037-43A4-931A-9725F11892B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,7 +238,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K28" totalsRowShown="0">
-  <autoFilter ref="A1:K28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:K28" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -544,7 +550,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -637,7 +643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -651,7 +657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -665,7 +671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>30</v>
       </c>
@@ -679,7 +685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -693,7 +699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>38</v>
       </c>
@@ -707,7 +713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>42</v>
       </c>
@@ -721,7 +727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>46</v>
       </c>
@@ -758,7 +764,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>18</v>
       </c>
@@ -772,7 +778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>22</v>
       </c>
@@ -786,7 +792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>26</v>
       </c>
@@ -800,7 +806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>30</v>
       </c>
@@ -814,7 +820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>34</v>
       </c>
@@ -828,7 +834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>38</v>
       </c>
@@ -842,7 +848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>42</v>
       </c>
@@ -856,7 +862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>46</v>
       </c>
@@ -893,7 +899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>18</v>
       </c>
@@ -907,7 +913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>22</v>
       </c>
@@ -921,7 +927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>26</v>
       </c>
@@ -935,7 +941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>30</v>
       </c>
@@ -949,7 +955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>34</v>
       </c>
@@ -963,7 +969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>38</v>
       </c>
@@ -977,7 +983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>42</v>
       </c>
@@ -991,7 +997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>46</v>
       </c>
